--- a/database/industries/lastic/parta/cost/yearly.xlsx
+++ b/database/industries/lastic/parta/cost/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\parta\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37A681-5AFA-43C0-9B36-50C53E7FE007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A81A71F-2BD3-4DEF-BB57-14BD64A1B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -644,12 +644,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -659,7 +659,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -683,7 +683,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +693,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -705,7 +705,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -717,7 +717,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -727,7 +727,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -759,7 +759,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
@@ -781,7 +781,7 @@
         <v>11131860</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -803,7 +803,7 @@
         <v>627707</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
         <v>1271868</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
@@ -847,7 +847,7 @@
         <v>13031435</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>15</v>
       </c>
@@ -891,7 +891,7 @@
         <v>13031435</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>16</v>
       </c>
@@ -913,7 +913,7 @@
         <v>-88902</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>18</v>
       </c>
@@ -957,7 +957,7 @@
         <v>12942533</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -979,7 +979,7 @@
         <v>664228</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>-986459</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>21</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>12620302</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>23</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>12620302</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1077,7 +1077,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1087,7 +1087,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1097,7 +1097,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>24</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1129,7 +1129,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>25</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>27</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>30</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>5956</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1281,7 +1281,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1301,7 +1301,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>31</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1333,7 +1333,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>25</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>11972</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>28</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>29</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>7207</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>30</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>5291</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>13</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>27424</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1485,7 +1485,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1495,7 +1495,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1505,7 +1505,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>32</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1537,7 +1537,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>25</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>13551</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>27</v>
       </c>
@@ -1585,7 +1585,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>28</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>6953</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>30</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>5608</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>28906</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1689,7 +1689,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1699,7 +1699,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1709,7 +1709,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>33</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1741,7 +1741,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="8" t="s">
         <v>25</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>27</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>28</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>29</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1893,7 +1893,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1903,7 +1903,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1913,7 +1913,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B71" s="7" t="s">
         <v>34</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1945,7 +1945,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>25</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>662110</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>121654</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>28</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>125804</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>51754</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>30</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>474861</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>13</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>1436183</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -2097,7 +2097,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2117,7 +2117,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>36</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -2149,7 +2149,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>25</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>4737180</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>27</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>506805</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>28</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2460417</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>29</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>1741559</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="8" t="s">
         <v>30</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>1941986</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>13</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>11387947</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2301,7 +2301,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2311,7 +2311,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2321,7 +2321,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>37</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2353,7 +2353,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>25</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>4812574</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>27</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>385469</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>28</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>2372627</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>29</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>1635921</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>30</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1925269</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>13</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>11131860</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -2505,7 +2505,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -2515,7 +2515,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -2525,7 +2525,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B104" s="7" t="s">
         <v>38</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -2557,7 +2557,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="8" t="s">
         <v>25</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>586716</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>27</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>242990</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>28</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>213594</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>29</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>157392</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="8" t="s">
         <v>30</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>491578</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>13</v>
       </c>
@@ -2699,7 +2699,7 @@
         <v>1692270</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2709,7 +2709,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -2719,7 +2719,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -2729,7 +2729,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>39</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -2761,7 +2761,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>25</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>233055262</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>27</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>292437500</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>28</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>1066135593</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>29</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>175437288</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="8" t="s">
         <v>30</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>207725722</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -2891,7 +2891,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -2901,7 +2901,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -2911,7 +2911,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -2943,7 +2943,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>25</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>395688273</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>27</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>443787215</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>28</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>1357846026</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>29</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>241648259</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>30</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>367035721</v>
       </c>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -3073,7 +3073,7 @@
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -3083,7 +3083,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -3093,7 +3093,7 @@
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B135" s="7" t="s">
         <v>42</v>
       </c>
@@ -3115,7 +3115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3125,7 +3125,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="8" t="s">
         <v>25</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>355145303</v>
       </c>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>27</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>382030723</v>
       </c>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>28</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1329202801</v>
       </c>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>29</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>235282756</v>
       </c>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>30</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>343307596</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -3255,7 +3255,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -3265,7 +3265,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -3275,7 +3275,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B145" s="7" t="s">
         <v>43</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -3307,7 +3307,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>25</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>464909667</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="10" t="s">
         <v>27</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>442604736</v>
       </c>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="8" t="s">
         <v>28</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>1473062069</v>
       </c>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="10" t="s">
         <v>29</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>286688525</v>
       </c>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="8" t="s">
         <v>30</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>249658710</v>
       </c>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3437,7 +3437,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -3447,7 +3447,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -3457,7 +3457,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B155" s="7" t="s">
         <v>44</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -3489,7 +3489,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>45</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>46</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="8" t="s">
         <v>47</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>48</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="8" t="s">
         <v>49</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>54627</v>
       </c>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>50</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>161317</v>
       </c>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="8" t="s">
         <v>51</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>67629</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>52</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>596781</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="8" t="s">
         <v>53</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>54</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>391514</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="14" t="s">
         <v>13</v>
       </c>
